--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
@@ -680,11 +680,6 @@
 2. 사이트 구현 시작
 1) Mercury
 - 첫 컨텐츠 , Introduction , Namesake , Potential for Life 까지 CSS 잡았음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1. 글꼴 변수에 담는 부분, 어디에서 적용이 안되는 것인지 모르겠음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,6 +795,16 @@
 4. 폰트 적용 질문하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>질문
+1. 폰트를 변수 할당, 어디가 문제인 것인지 모르겠음.
+2. 그리드 
+- 개별 이미지 셋팅하는 방법
+- 그리드 이미지들이 둥둥 떠나닐 수 있는 효과를 주려면 ?
+3. SCSS 관리 문제
+공통되는 영역은 어떻게 묶어 관리하는 것이 좋은지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -811,7 +816,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1015,14 @@
       <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1419,7 +1432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,6 +1577,51 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1594,15 +1652,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1612,40 +1661,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1657,14 +1679,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2745,12 +2761,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2766,7 +2782,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2777,60 +2793,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="52">
         <v>45670</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2905,14 +2921,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2998,7 +3014,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="51" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -3043,7 +3059,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3084,7 +3100,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3125,7 +3141,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3166,7 +3182,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3207,7 +3223,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3248,7 +3264,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H40" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3289,7 +3305,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3328,7 +3344,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3367,7 +3383,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="22">
@@ -3410,7 +3426,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3451,7 +3467,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H30" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3490,7 +3506,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3529,7 +3545,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3568,7 +3584,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3607,7 +3623,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3646,7 +3662,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3687,7 +3703,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3728,7 +3744,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3769,7 +3785,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3810,7 +3826,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3851,7 +3867,7 @@
       <c r="F28" s="11">
         <v>45674</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3892,7 +3908,7 @@
       <c r="F29" s="11">
         <v>45674</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3933,7 +3949,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3972,7 +3988,7 @@
       <c r="F31" s="11">
         <v>45678</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4013,7 +4029,7 @@
       <c r="F32" s="11">
         <v>45678</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4054,7 +4070,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4095,7 +4111,7 @@
       <c r="F34" s="11">
         <v>45680</v>
       </c>
-      <c r="G34" s="65"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4136,7 +4152,7 @@
       <c r="F35" s="11">
         <v>45684</v>
       </c>
-      <c r="G35" s="65"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4177,7 +4193,7 @@
       <c r="F36" s="11">
         <v>45684</v>
       </c>
-      <c r="G36" s="66"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4364,18 +4380,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="G16:G36"/>
     <mergeCell ref="G7:G15"/>
     <mergeCell ref="J4:AA4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA40">
@@ -4737,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4757,16 +4773,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4776,7 +4792,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4789,126 +4805,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="79" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="77"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5072,123 +5088,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="79" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="78"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5269,8 +5285,8 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>111</v>
+      <c r="G16" s="82" t="s">
+        <v>114</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -5294,123 +5310,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="79" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="77"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5494,11 +5510,11 @@
         <v>90</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -5551,123 +5567,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="79" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="77"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5753,7 +5769,7 @@
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -5778,83 +5794,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5871,6 +5810,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250114.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="116">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,13 @@
 공통되는 영역은 어떻게 묶어 관리하는 것이 좋은지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>답변 
+1. sass 문법에 맞게 링크 @import 하고, $를 써서 변수 할당하면 됨.
+2. 지금 구조에서는 aspect-ratio 를 겉박스 말고 img한테 직접 주기
+3. mixin 에 담아 include 시키거나, extend 기능을 사용해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -816,7 +823,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,6 +1030,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1432,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1577,6 +1593,57 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,52 +1680,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,16 +1698,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2761,12 +2780,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2793,60 +2812,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="69">
         <v>45670</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2921,14 +2940,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="59"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -3014,7 +3033,7 @@
       <c r="F7" s="11">
         <v>45695</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="68" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="22">
@@ -3059,7 +3078,7 @@
       <c r="F8" s="11">
         <v>45695</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H12" si="3">IF(F8="","",F8+1-E8)</f>
         <v>26</v>
@@ -3100,7 +3119,7 @@
       <c r="F9" s="11">
         <v>45695</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3141,7 +3160,7 @@
       <c r="F10" s="11">
         <v>45695</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3182,7 +3201,7 @@
       <c r="F11" s="11">
         <v>45695</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3223,7 +3242,7 @@
       <c r="F12" s="11">
         <v>45695</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3264,7 +3283,7 @@
       <c r="F13" s="11">
         <v>45695</v>
       </c>
-      <c r="G13" s="49"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="22">
         <f t="shared" ref="H13:H40" si="4">IF(F13="","",F13+1-E13)</f>
         <v>26</v>
@@ -3305,7 +3324,7 @@
       <c r="F14" s="11">
         <v>45695</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3344,7 +3363,7 @@
       <c r="F15" s="11">
         <v>45695</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="22">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3383,7 +3402,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="65" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="22">
@@ -3426,7 +3445,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3467,7 +3486,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="22">
         <f t="shared" ref="H18:H30" si="5">IF(F18="","",F18+1-E18)</f>
         <v>5</v>
@@ -3506,7 +3525,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3545,7 +3564,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3584,7 +3603,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3623,7 +3642,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3662,7 +3681,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3703,7 +3722,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3744,7 +3763,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="22">
         <f t="shared" ref="H25" si="6">IF(F25="","",F25+1-E25)</f>
         <v>5</v>
@@ -3785,7 +3804,7 @@
       <c r="F26" s="11">
         <v>45674</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3826,7 +3845,7 @@
       <c r="F27" s="11">
         <v>45674</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3867,7 +3886,7 @@
       <c r="F28" s="11">
         <v>45674</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3908,7 +3927,7 @@
       <c r="F29" s="11">
         <v>45674</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3949,7 +3968,7 @@
       <c r="F30" s="11">
         <v>45678</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3988,7 +4007,7 @@
       <c r="F31" s="11">
         <v>45678</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4029,7 +4048,7 @@
       <c r="F32" s="11">
         <v>45678</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4070,7 +4089,7 @@
       <c r="F33" s="11">
         <v>45680</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4111,7 +4130,7 @@
       <c r="F34" s="11">
         <v>45680</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -4152,7 +4171,7 @@
       <c r="F35" s="11">
         <v>45684</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4193,7 +4212,7 @@
       <c r="F36" s="11">
         <v>45684</v>
       </c>
-      <c r="G36" s="50"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4380,18 +4399,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G16:G36"/>
+    <mergeCell ref="G7:G15"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G16:G36"/>
-    <mergeCell ref="G7:G15"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA40">
@@ -4753,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4773,16 +4792,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4805,126 +4824,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="79"/>
-      <c r="C4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="76" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="81"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5088,123 +5107,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79"/>
-      <c r="C12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="76" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="81"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="82"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5285,10 +5304,12 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="83" t="s">
+        <v>115</v>
+      </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5310,123 +5331,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="76" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="81"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="82"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5567,123 +5588,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="81"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="82"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5794,6 +5815,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5810,83 +5908,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
